--- a/biology/Histoire de la zoologie et de la botanique/Cecil_Boden_Kloss/Cecil_Boden_Kloss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cecil_Boden_Kloss/Cecil_Boden_Kloss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecil Boden Kloss (28 mars 1877 - 19 août 1949) est un ornithologue et un zoologiste britannique.
 </t>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mammifères
-Aeromys Robinson et Kloss, 1915 - genre de rongeurs de la famille des Sciuridae
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aeromys Robinson et Kloss, 1915 - genre de rongeurs de la famille des Sciuridae
 Rattus argentiventer (Robinson &amp; Kloss, 1916) - rongeur de la famille des Muridae
 Hylomys parvus Robinson &amp; Kloss, 1916 - insectivore de la famille des Erinaceidae
-Mus crociduroides (Robinson &amp; Kloss, 1916) - rongeur de la famille des Muridae
-Autres
-Megalaima annamensis (Robinson &amp; Kloss, 1919)
+Mus crociduroides (Robinson &amp; Kloss, 1916) - rongeur de la famille des Muridae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cecil_Boden_Kloss</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cecil_Boden_Kloss</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques taxons décrits</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Megalaima annamensis (Robinson &amp; Kloss, 1919)
 Cutia legalleni Robinson &amp; Kloss, 1919 - passereau de la famille des Leiothrichidae
 Coluber jansenii (nec Gonyosoma jansenii Bleeker, 1858) - Robinson &amp; Kloss, 1920 - serpent de la famille de Colubridae, synonyme de Gonyosoma oxycephalum</t>
         </is>
